--- a/biology/Botanique/Melastomataceae/Melastomataceae.xlsx
+++ b/biology/Botanique/Melastomataceae/Melastomataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Melastomataceae ou Mélastomatacées regroupe des plantes dicotylédones ; elle comprend plus de 4 400 espèces réparties en près de 180 genres.
 Ce sont des plantes herbacées, des arbustes, des arbres ou des lianes, parfois grimpants ou épiphytes, ayant colonisé une grande variété de milieux, des régions subtropicales à tropicales (en dehors des zones arides). Elle est largement représentée en Amérique du Sud.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Melastoma qui est issu du grec μέλανος / melanos, noir, et στόμα / stoma, bouche, car les baies, quand elles sont consommées, tachent la bouche en noir.
 </t>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[1] inclut dans cette famille les genres précédemment placés dans la famille Memecylaceae : Lijndenia (en), Memecylon, Mouriri, Pternandra (sv), Spathandra (en), Votomita et Warneckea (en).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Memecylaceae : Lijndenia (en), Memecylon, Mouriri, Pternandra (sv), Spathandra (en), Votomita et Warneckea (en).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010) :
 Acanthella
 Aciotis
 Acisanthera
@@ -773,7 +791,7 @@
 Vietsenia
 Votomita
 Warneckea
-Selon NCBI  (1 juin 2010)[3] :
+Selon NCBI  (1 juin 2010) :
 Aciotis
 Adelobotrys
 Amphiblemma
@@ -866,7 +884,7 @@
 Tristemma
 Votomita
 Warneckea
-Selon DELTA Angio           (1 juin 2010)[4] :
+Selon DELTA Angio           (1 juin 2010) :
 Acanthella
 Aciotis
 Acisanthera
@@ -1048,7 +1066,7 @@
 Tryssophyton
 Tylanthera
 Vietsenia
-Selon ITIS      (1 juin 2010)[5] :
+Selon ITIS      (1 juin 2010) :
 Acisanthera P. Br.
 Arthrostemma Pavón ex D. Don
 Astronidium Gray
